--- a/mirror.xlsx
+++ b/mirror.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J515"/>
+  <dimension ref="A1:J520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22076,6 +22076,216 @@
       </c>
       <c r="J515" t="n">
         <v>115</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>8IWX8WUR_NTX</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>CANDINTX230088</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E516" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="F516" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G516" t="n">
+        <v>4654.62</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 </t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>797ICN5Q_NTX</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>CANDINTX230096</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E517" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="F517" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2123.16</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 </t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>1VI9YTGP_NTX1</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>CANDINTX230101</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E518" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F518" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="G518" t="n">
+        <v>4653.09</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 </t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>1PN81PFT_NTX1</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>CANDINTX230102</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E519" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F519" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="G519" t="n">
+        <v>907.92</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 </t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>14B95KDO_NTX</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>JPNDINTX230035</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E520" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F520" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2349</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 </t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/mirror.xlsx
+++ b/mirror.xlsx
@@ -30377,7 +30377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M511"/>
+  <dimension ref="A1:M512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58498,6 +58498,57 @@
         <v>113</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>TPF</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>USADITPF230023</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>4STHQ9VE_TPF</t>
+        </is>
+      </c>
+      <c r="E512" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="F512" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="G512" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>54,348.00</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 </t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2,023 </t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="n">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
